--- a/docs/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID_edited.xlsx
+++ b/docs/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA\example_output\Taxonomic_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9A284-749C-4E78-98F1-ED8EA5D0E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41ED66B-29C2-4A96-B47C-01FB1DFF7C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
     <t>Schizocardium brasiliense</t>
   </si>
   <si>
-    <t>unassigned</t>
+    <t>Unassigned</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
